--- a/static/cto_application_template.xlsx
+++ b/static/cto_application_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\warm-hollows-62602\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F5396A-63F2-4FB1-A02E-6D5B076A5E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A07C55-A704-48C0-BEBC-591121EE4E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6104BA5D-FE45-4AC2-A32B-779FF9AD5A5D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>REQUEST FOR COMPENSATORY TIME – OFF (CTO)</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>OIC  - Schools Division Superintendent</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -258,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -280,15 +283,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -297,6 +291,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -744,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D65F482C-81AE-42C7-9E0A-95C731D943A0}">
   <dimension ref="A7:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,111 +767,113 @@
   </cols>
   <sheetData>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="25"/>
+      <c r="C9" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="18" t="s">
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="18" t="s">
+      <c r="G9" s="23"/>
+      <c r="H9" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19" t="s">
+      <c r="I9" s="23"/>
+      <c r="J9" s="23" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="2"/>
       <c r="D12" s="4"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="2"/>
       <c r="D13" s="4"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="2"/>
       <c r="D14" s="4"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="2"/>
       <c r="D15" s="4"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -958,117 +966,119 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="19" t="s">
+      <c r="B33" s="25"/>
+      <c r="C33" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="18" t="s">
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="19"/>
-      <c r="H33" s="18" t="s">
+      <c r="G33" s="23"/>
+      <c r="H33" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19" t="s">
+      <c r="I33" s="23"/>
+      <c r="J33" s="23" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
-      <c r="B35" s="19"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
       <c r="C35" s="2">
         <f>C11</f>
         <v>0</v>
       </c>
-      <c r="D35" s="4"/>
+      <c r="D35" s="20" t="s">
+        <v>15</v>
+      </c>
       <c r="E35" s="3">
         <f>E11</f>
         <v>0</v>
       </c>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
       <c r="C36" s="2"/>
       <c r="D36" s="4"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
-      <c r="B37" s="19"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
       <c r="C37" s="2"/>
       <c r="D37" s="4"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
-      <c r="B38" s="19"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="23"/>
       <c r="C38" s="2"/>
       <c r="D38" s="4"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="19"/>
-      <c r="B39" s="19"/>
+      <c r="A39" s="23"/>
+      <c r="B39" s="23"/>
       <c r="C39" s="2"/>
       <c r="D39" s="4"/>
       <c r="E39" s="3"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -1110,18 +1120,18 @@
       <c r="B43" s="4"/>
       <c r="C43" s="3"/>
       <c r="D43" s="5"/>
-      <c r="E43" s="20">
+      <c r="E43" s="17">
         <f>E19</f>
         <v>0</v>
       </c>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="20">
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="17">
         <f>I19</f>
         <v>0</v>
       </c>
-      <c r="J43" s="22"/>
+      <c r="J43" s="19"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
@@ -1165,7 +1175,10 @@
       <c r="I46" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J46" s="3"/>
+      <c r="J46" s="3">
+        <f>J22</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
@@ -1174,6 +1187,39 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="C9:E10"/>
+    <mergeCell ref="F9:G10"/>
+    <mergeCell ref="H9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A33:B34"/>
+    <mergeCell ref="C33:E34"/>
+    <mergeCell ref="F33:G34"/>
+    <mergeCell ref="H33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="H39:I39"/>
@@ -1183,39 +1229,6 @@
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="F38:G38"/>
     <mergeCell ref="H38:I38"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A33:B34"/>
-    <mergeCell ref="C33:E34"/>
-    <mergeCell ref="F33:G34"/>
-    <mergeCell ref="H33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="C9:E10"/>
-    <mergeCell ref="F9:G10"/>
-    <mergeCell ref="H9:I10"/>
-    <mergeCell ref="J9:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
